--- a/data/hotels_by_city/Dallas/Dallas_shard_363.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_363.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="967">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>OneSouthernBelle</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed on 6/1/2018 and 6/2. On the night of 6/2, the guest below us was playing extremely loud music, loud enough to shake the floor. When complained to front desk, they advised that they (the hotel) approved this! But they had to stop at 9pm. I guess for some this was ok, but for a heart patient this was pure misery. Stay away! You will be healthier.More</t>
   </si>
   <si>
+    <t>R B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r564943249-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Located just off the freeway, but inside is a quiet hotel. Quick and easy check in and check out. Clean room, once again very quiet. Nearby food and entertainment, multiple options. I come to town for doctor appointments and am able to get in and out easily.More</t>
   </si>
   <si>
+    <t>Kelly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r567917377-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>sarah j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r563559842-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
   </si>
   <si>
     <t>I have stayed with Holiday Inn Express DFW West in Hurst, Tx so many times that I've lost count. Every time I'm here they take the best care of me. From the front desk to the kitchen staff to room services. I absolutely love the employees and this hotel! If you are dealing with the front desk, you will be happy to know that they've got the best to greet you once you walk in. Mayra, Bethany, AnnMayra, James, and even cute little Shane. They make me feel like I'm family. Polite, kind, friendly, and they even deal with my crazy jokes. I will never go to another hotel when I'm in town for I know I'll be happy because my money is being spent properly. Many thanks to Rachel and Robin. Y'all gotta a great team!More</t>
+  </si>
+  <si>
+    <t>Arnold_Ziffel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r549765413-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -287,6 +302,9 @@
 Their breakfast offering was “standard” for the express locations, and my only concern with that is no eggs at all that weren’t also mixed with cheese.  The biscuits were fresh and the cinnamon rolls pretty good, and a wide variety of all the carbs a body would need to kill themselves. They offered patty sausages and the bacon was crisp, and the coffee hot and fresh. I never saw their breakfast chef but there was plenty of everything available except for guests to eat it.  The...This property is 100% Kemmons Wilson. The lobby and common areas are lined in rich dark woods, and the walls covered in wallpaper with the breakfast nook having 20’ high ceilings.  The whole place is in great condition. I had an overflow condition at my house and decided to put the extras here. When I walked in Christmas Eve in the middle of the afternoon everything was in perfect order.  The room quality was superior with it’s valances over the drapes and the bathrooms finished out in wallpaper.  The condition of the beds and towels were superior and we never used the microwave or baby refrigerator. In years past Holiday Inn wanted me to be impressed with their shower heads, but I think that has passed and I’m now supposed to notice all those pillows on the bed. The furniture and fixtures in the guest room were top quality stuff, and felt like home. Their breakfast offering was “standard” for the express locations, and my only concern with that is no eggs at all that weren’t also mixed with cheese.  The biscuits were fresh and the cinnamon rolls pretty good, and a wide variety of all the carbs a body would need to kill themselves. They offered patty sausages and the bacon was crisp, and the coffee hot and fresh. I never saw their breakfast chef but there was plenty of everything available except for guests to eat it.  The hotel was just empty, plain and simple.  If there was a pool or fitness area I just didn’t see it, and they had a business center hosting 2 machines with a privacy door for those needing to get something done.I only had one problem there which was the hotel’s internet. At first I couldn’t even connect to it as my machine could see their signal but reported it had no connection to the internet.  Later in our stay I was able to connect to it, but it was so painfully slow it was not usable.  The desk clerk insisted there’s nothing wrong with it, but that doesn’t make a lot of sense unless we were using different connections.  There are RJ45 connectors on the wall, but since most properties are no longer supporting that in favor of wireless I never pulled out a cable and gave it a try. A business person needing to do work would have been in a bad place, indeed.Overall this place was first rate, but even better for the price they asked. The facilities look a whole lot more like a full service inn than an Express location.  I’d stay with them again, and I could recommend them to another.  They do need to take a closer look at their guest internet access but I’m sure if it’s broke other guests will also complain and lead them to correct it. The traffic patterns getting into this place are anything but desirable, but once you’ve checked in you can quickly find ways to approach it from other than Precinct Line Road.There is an Italian joint next door and lots of other choices and fast food choices within two blocks. If you go to bed hungry it's your fault.More</t>
   </si>
   <si>
+    <t>Rick5931</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r485120361-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>This was my first time in this area of Dallas and wanted to try this Holiday Inn. Great location and looks new. They have an evening snack and drinks from 5 to7 during the week. Free beer and wine with some good food.Was sending relatives to airport and they offered shuttle service there and back.Robin, the General Manager is wonderful and very helpful and made our visit relaxingMore</t>
   </si>
   <si>
+    <t>117danelias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r480067031-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -335,6 +356,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Dana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r479483687-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -362,6 +386,9 @@
     <t>We stay at this property frequently.  It's always clean and in a great location for us.  There's lot's of great restaurants nearby.  The staff is friendly and helpful.  There's always groups of kids there. They run up and down the halls late at night. This is a downer for us. More</t>
   </si>
   <si>
+    <t>Aquariuschick03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r478602909-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -389,6 +416,9 @@
     <t>I was looking for a local hotel with a indoor pool to have my daughter's birthday sleepover at. I will start with the front desk receptionists Rachel...She was very very helpful in finding the right room...she was very professional, knowledgeable, and helpful (she is the reason I booked instead of looking around for other hotels). She told me about the Grand Master Suite which you may not see when looking online. The suite have a king bed, two queen beds, and a pull out sofa queen bed! The suite was very nice, and clean. The indoor pool was very nice!!! Breakfast is also included with your stay...They did have a variety of breakfast items to choose from. I would definitely recommend this hotel!! It's really nice, and one of the newer hotels.More</t>
   </si>
   <si>
+    <t>cmeyer7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r473020271-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -413,6 +443,9 @@
     <t>Everything is amazing. The staff breakfast pool and managers reception  monday thru thrusday everything is clean and organized and rooms are spacious not one thing bad can be said about this hotel in anywayMore</t>
   </si>
   <si>
+    <t>Britney P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r468062711-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -440,6 +473,9 @@
     <t>This hotel is has pretty decor. We stayed in the king suite which had 2 queen beds and a love seat and an actual King size bed in the bedroom area. Everything was comfortable and we had a great nights sleep. They had a managers reception with free drinks and snacks from 5-7pm. The pool was nice but had a lot of chlorine. Breakfast smelled great but we didn't eat there. We will stay here again when we are in town.More</t>
   </si>
   <si>
+    <t>Marsha L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r467091125-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -464,6 +500,9 @@
     <t>Rachel is a phenomenal employee!  She strives to make sure everyone is taken care of at given time. She is knowledgeable, friendly, and an all around super star...I was having trouble with reservations booking a room with points.  When it was clear reservations did not know what to do, Rachel stepped in and resolved it immediately.  She consistently made sure everyone was pleased and was more than willing to facilitate any requests by guests.  I would go out of my way to stay at this location just because of Rachel's service.  Robin should promote her and give her a raise.  She exemplifies the characteristics of someone that loves what she does, and is not afraid to roll up her sleeves.  Thanks, Rachel!  I will be back.More</t>
   </si>
   <si>
+    <t>Ashley K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r461703938-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -491,6 +530,9 @@
     <t>I stayed following a wedding in the area. Prompt service at the desk, very helpful staff (courteous and professional). Everything from the lobby, the halls, the elevator, and the rooms were exceptionally clean and well-maintained. I'm in love with the shower, but that's just a personal preference. I also used their gym, which was very convenient. Everything was just wonderful inside, and it's close to a Super Target, gas stations, and several places to eat. Housekeeping staff is also very helpful and respectful of your privacy (I slept late one morning and they were very quiet). Will definitely book here again. Well-worth what I paid. More</t>
   </si>
   <si>
+    <t>Kristi G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r453485463-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -515,6 +557,9 @@
     <t>We specifically chose this hotel because of the indoor pool for our starvation in January. It was not heated or the pool room so it was freezing so may as well have been outside. Very disappointed for me and my kids. More</t>
   </si>
   <si>
+    <t>Billd39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r447340470-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -542,12 +587,18 @@
     <t>I'm very happy to report that we selected the right hotel. It was our first Christmas reunion in years, with family coming from several locations. With all of the arrangements and details to handle, it was a welcome break to work with Aimee Anderson, the hotel's Director of Sales. All was discussed and booked in less than 20 minutes, including keeping all of the family on the same floor. I must add at this point that I didn't stay at the hotel, although Aimee gave me a room tour at the time of booking. However, I asked all of our visitors to give me an honest critique at the end of the stay. Without exception, the comments were very positive. The front desk personnel were friendly, efficient and helpful. Check in was smooth. The rooms were clean and comfortable. The (free) breakfast was very good and offered a nice variety. Check outs went without a hitch. Suffice to say, I am very pleased! We may do this again in the future, and I'd certainly reccomend this hotel.More</t>
   </si>
   <si>
+    <t>Richard T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r444814127-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
     <t>444814127</t>
   </si>
   <si>
+    <t>Kenny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r440699676-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -575,6 +626,9 @@
     <t>Stayed here for the week of Thanksgiving!  This hotel was spotless, the rooms were comfortable, and the staff was friendly!  The king suite rooms are very nice, not large but big enough and well done.  The showers are great, very big, and great water pressure!  Only drawback was a weak Wifi signal that was frustrating at times.  The location is great, centrally located, and close lots of restaurants, the highway, and other amenities.  The location is very safe, and clean!More</t>
   </si>
   <si>
+    <t>Soxgirl58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r440022292-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -599,6 +653,9 @@
     <t>Visiting family in ft worth and this location was convenient and reasonably priced compared to others not far away. Close to restaurants and necessities, property situated well away from road noise room was perfectly quiet. Modern decor looks recently updated, always appreciate fridge and microwave in HIE, comfortable sitting area and door-less shower nice additions, good bathroom lighting. Breakfast area a little short on seating on busy morning but stylish and well kept. I'll come back.More</t>
   </si>
   <si>
+    <t>Twin2Garner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r439131129-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -623,6 +680,9 @@
     <t>Was here for 5 nights.  Excellent suite with two Queen beds. Comfortable bedding and a good amount of space. Only problem this week was cold water in the shower. They were working on it when we left so three out of four got a hot shower by Friday. Pool was cool water - so very invigorating. Breakfast area was excellent and food very good. Would have liked some cranberry juice!  Easy to get to restaurants, Walmart and gas stations.   Close to the mall and you could even use the local roads without getting in the terrible traffic on bypasses!!More</t>
   </si>
   <si>
+    <t>RuralRoadRunners</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r428381810-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -650,6 +710,9 @@
     <t>Room was spacious, clean &amp; quiet.  There was a large desk, refrigerator &amp; microwave.   Bed was comfortable. During the week there was an evening reception with a good variety of foods &amp; beverages.  Breakfast was good but breakfast area needs more tables.More</t>
   </si>
   <si>
+    <t>Dwayne A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r418578716-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -677,6 +740,9 @@
     <t>The staff was incredible during our 1 night stay here.  Great room, and manager's happy hour for guests was awesome.  The breakfast in the morning was very good with lots to offer their guests.  Thank you staff for making our stay great!!!More</t>
   </si>
   <si>
+    <t>Iman L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r416961490-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -695,6 +761,9 @@
     <t>I had a great experiences here, Damian at the front desk provided excellent customer service. The rooms were well taken care of, no issues at all.  The checking process was also quick and painless no hassle. I would stay here again. More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r411865425-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -719,6 +788,9 @@
     <t>I stayed at the hotel over 20 nights per year for the last three years. The breakfast is consistent with all other HIEs. During the week, they have light snacks put out in the evening. Some rooms have walk in showers with no doors - very nice. The Internet access is very slow and everyone gets bumped off at night. Most of the staff are friendly. Like many hotels, they turn over every few months.Overall, a good value, and my go to place while in North Richland Hills.More</t>
   </si>
   <si>
+    <t>Matt M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r409326647-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -737,6 +809,9 @@
     <t>Had to saty here because my flight was delayed, the hotel looks old but i had to say that it was clean, they include breakfast which is a plus and complimentary shuttle (around 15 min) to the airport.More</t>
   </si>
   <si>
+    <t>Claire M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r402591837-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -759,6 +834,9 @@
   </si>
   <si>
     <t>First I was shock by the suite I was given, it smelled awful and moldy and carpet looked filthy even febreeze couldn't fix this, the carpet needed replacement. Usually I suck it up up but couldn't this one. I requested another and was so much better but still needs improvement. Rachel, John, Paul and the rest of the staff were so friendly courteous and nice that makes the place otherwise it needs renovation and the other TM was out of order. The complimentary breakfast and happy hour presentations were good.And the window air units are louder in some rooms. My sister,s room was nice and my brother there is inconsistency there. All suites and rooms had fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>Zamigaos</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r399151982-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -796,6 +874,9 @@
 I would stay there again, as the price was better than the other...I would say the staff is one of the best reasons to go back to this hotel.  They were all extremely friendly, helpful and efficient - from the front desk staff to the  breakfast attendant.  We arrived early - about 230pm and our room was ready and on the top floor away from the elevator as we had requested online.  The room was clean, if a bit dated.  The only negative I would mention is that the A/C unit made a really loud rattling sound when the fan kicked in.  If we had noticed this before we settled into the room, we may have asked to change rooms.  But, in the end, it cooled just fine and it did not really bother us while sleeping.  I did mention it to the front desk after we checked out and hopefully it will be addressed.The exercise room is small - your typical hotel size.  But, the hotel is close to Tarrant County Community College and there is room to walk or run in a safe area if you feel so inclined.  Breakfast is a typical HIE breakfast.  However, the attendant kept it full and the tables clean through the entire breakfast hours.  I stopped in for coffee after it had ended and there was still plenty of coffee and a few other items, like fruit, were still available.I would stay there again, as the price was better than the other two hotels in the area and we are HIE members.More</t>
   </si>
   <si>
+    <t>Dirk P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r397715417-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -814,6 +895,9 @@
     <t>HI Express Is my hotel of choice and this is by far the nicest I've stayed at. Stayed here three times so far in 2016. Very nice lobby and breakfast room. Always able to get a suite with two queen beds and a queen sofa.More</t>
   </si>
   <si>
+    <t>Travler2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r393070169-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -838,6 +922,9 @@
     <t>Stayed in holiday inns before but this one was the best so far! The hotel very nice and modern. They have a free breakfast and offer several healthy options to go along with regular items like pancakes. They also offer a free and great evening meal/snack on Monday-Thursday evenings.The room was excellent. We sprung for the suite with two queen beds and well worth the extra money. It has a lot of extra space, good when you have kids. The beds were very comfortable. Also, the hotel was quiet in the evenings.The only downside was that the indoor pool was out of order for maintenance. Would definitely stay there again! More</t>
   </si>
   <si>
+    <t>GAWanderer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r392712443-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -859,6 +946,9 @@
     <t>Ours was a one night stay prior to an early morning flight from DFW.  Our room was clean, comfortable and well appointed. This location was chosen due to price being lower than other HIE &amp; HE which are closer to airport, we were not disappointed.More</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r390092969-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -883,6 +973,9 @@
     <t>A slight mishap with our reservation was fixed with ease and we spent two wonderful nights here. One night in a two queen and another in a suite. Loved them both and they were huge, new and clean. We never heard a sound around us. Breakfast was the best I have seen at a holiday inn and was delicious. The night staff did not fix our reservation correctly but the morning staff was wonderful and prompt and making sure everything was ok. Pool was slightly chilly but the kids enjoyed it but I do wish they had a hottub. Would come back again anytime. More</t>
   </si>
   <si>
+    <t>PC J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r384962157-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1000,9 @@
     <t>Great customer service, very clean and pleasant atmosphere. Conveniently located. Enjoyed the stay. The customer service was excellent but need to improve the breakfast. Not much choice at the breakfastMore</t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r384223820-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
     <t>Great location, airport pick up and return plus free local shuttle service provided for a 5 mile radius from hotel.  Large clean comfortable rooms with comfortable beds and pillows.  Really great fre breakfasts provided up to 10AM and an indoor pool. Staff were very courteous and helpful.  This hotel is usually fully booked which is a good indication of it's desirability.More</t>
   </si>
   <si>
+    <t>rodpumpman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r379717215-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1072,9 @@
     <t>Great location that is easy to get in and out of. The indoor pool is small, but sufficient. The AC worked well. The hotel must be pretty new. It is in excellent shape. The toilets aren't too loud, which is really nice. Great water pressure in the shower too. No complaints. More</t>
   </si>
   <si>
+    <t>GRT262</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r374903722-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1102,9 @@
     <t>Stayed here for 1 night after flying into Dallas from the uk. close by to the airport so transfer didn't take us long. Staff friendly and room clean. breakfast was excellent plenty choice. also there is a couple restaurant nearby within walking distance. can't fault it wouldn't hesitate to book again if in the area. More</t>
   </si>
   <si>
+    <t>ThisGirlLovesFL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r326598426-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1132,9 @@
     <t>Stayed 2 nights/3 days on the 3rd floor.  Relatively quiet and the room was quite cozy.  The heat/air was a bit of a hassle to get right.  Either it was really hot or very cold but that wasn't a deal breaker.  The only con about this room (301) was that on a Sunday I was REALLY wanting to watch the Walking Dead so I turned on AMC.  It was AMC HD so I was expecting a decent picture.  It was horrible! It was like watching a show on satellite when there is a storm.  The beds and pillows were comfy, plenty of towels, and the room had free popcorn, a coffee maker, coffee and plenty of lights.  The breakfast selections were basic but FREE so I won't complain about any of that.  Tuesday night we took full advantage of the free finger foods and FREE beer/wine selection. Wifi was FREE and decent.  Beggars can't be choosers right!? I can't tell you about the housekeeping service as I opted out of it but I sure didn't see anyone out in the hallways knocking and being loud so that is a huge plus!  If I ever had to stop and stay while in Hearst I would not count this hotel out.More</t>
   </si>
   <si>
+    <t>PANancyM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r320475981-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1162,9 @@
     <t>Nice property- well maintained.  My room on Night one(223) had a whine and a VERY noisy AC unit.  I could have dealt with that but no hot water in the shower made me complain.  Maintenance came and supposedly fixed my shower but said the AC is just noisy...hmmmm.  I went back up after teaching and still NO hot water in my shower.  Went back down and young man at the desk was very apologetic and accomodating.  He asked if I wanted to have someone check again or he could just move me.  I opted to move as the whine was probably from the elevator shaft I was next to.  My next room was VERY nice (405) and far away from the elevator.  Blessed hot water!!  The showers and baths are very nice.  Bed was comfy and I liked that the pillows were a variety of soft and hard.  Sofas/chairs were a bit tired looking but I didnt use them anyway. Overall, handled a problem very well.More</t>
   </si>
   <si>
+    <t>BeachBum6583</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r320180813-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1183,9 @@
     <t>This hotel is perfect for families.  We had a suite.  2 Double beds and a fold out sofa.  Breakfast was good (the cinnamon rolls are wonderful!) and the attendant was very pleasant.  Very safe location.  This location was perfect for us.More</t>
   </si>
   <si>
+    <t>MatthewHansen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r318410192-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1207,9 @@
     <t>Holiday Inn has become my new favorite hotel. The rooms are always clean and without issue. They are priced well and gave a good breakfast. The best thing in my opinion is that they offer rooms with two queen beds and that is a major advantage over two full size; the room also had a nice sleeper sofa, so you could sleep six if needed.More</t>
   </si>
   <si>
+    <t>Jason A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r317043899-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1232,9 @@
   </si>
   <si>
     <t>Great location.  Everything was clean.  The rooms were great!  Breakfast was great and the staff was polite and helpful!!!  Price was perfect!  Thank you for accommodating our team.  We would most definitely stay here again.  We come for a tournament 2 times a year in Dallas.More</t>
+  </si>
+  <si>
+    <t>ltcmgm78</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r315603465-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -1150,6 +1270,9 @@
 I found the desk clerk working during the day to be generally unenthusiastic.  When I pointed out that their signage posted didn't show you how to navigate inside the building to get to the front desk, I just got a bewildered look from him.  The clerk working the night shift was...Great location just off the Airport Freeway.  I enjoyed staying here.  The room was very nice.  I particularly enjoyed the shower in the room.  It had an adjustable shower nozzle and was a treat to use.  The HDTV worked well.  Room was quiet for the most part, but unfortunately some guests think once they are in the hallway that they can yell down the hall to a fellow traveler.The breakfast was good.  They had nice fresh bananas available and not the dark, spotty brown ones that are ready to find their way into a batch of banana bread.Today is the LAST day of their Main Entrance Renovation.  Until this is done, you cannot enter via the main entrance.  They are cutting concrete, laying bricks, etc.  You can only enter by a side entrance.  So, if you stay here today, check to see if the  main entrance is open before you park.  They also had some major water leak in the ceiling next to the front desk and the work was blocking the inside route to the front desk.  Just be careful if the work is still ongoing.I found the desk clerk working during the day to be generally unenthusiastic.  When I pointed out that their signage posted didn't show you how to navigate inside the building to get to the front desk, I just got a bewildered look from him.  The clerk working the night shift was a Hispanic lady and she was a treat!I dined twice at the Italian restaurant next door and found it enjoyable.More</t>
   </si>
   <si>
+    <t>Indy_Fan_Man</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r314989403-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1291,9 @@
     <t>Flew into Dallas on a Sunday evening for an early Monday meeting, the hotel shuttle was quick to pick me up and whisk me to the hotel about 15 minutes away. The room was large and had a very nice walk in shower. The front desk staff was very helpful with suggestions on the limited restaurants that would deliver at 10 pm. Hotel appears to be an older property but has been taken care of.The breakfast area was very clean and well stocked with the normal Holiday Inn breakfast selections. I would recommend and stay here againMore</t>
   </si>
   <si>
+    <t>schindlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r287416626-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1321,9 @@
     <t>I don't know who picked the wallpaper for the bathroom, but fortunately I'm comfortable with the decor of a bordello.  Aside from that, the doorless shower was very nice and the room was comfortable.  Was quite pleased with their free breakfast, too.More</t>
   </si>
   <si>
+    <t>Adam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r284042394-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1345,9 @@
     <t>I stay here an average of 20 nights a year for work so here's the scoop. Clean, friendly staff, good location.  Next door is a good Italian restaurant and the opposite direction is a good Mexican place. Both walking distance. You are literarily across the street from the police department so it's safe :). Walmart and Target are less than a mile away. If you've stayed at a holiday inn you know the breakfast routine. The happy hour is nice 5-7pm Monday-Thursday which includes free snacks, beer, and wine. There is a gym and indoor pool also. Only downside to me is the beds. HARD!!  If you're into firm beds you'll be fine. I'd recommend since I stay here so much by choice. More</t>
   </si>
   <si>
+    <t>Tina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r283872148-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1363,9 @@
     <t>We stayed at this hotel while I was having my back surgery. It was a great hotel to stay at while I recovered from surgery. The rooms were clean, comfortable and spacious. It was nice having a microwave and fridge. A bigger coffeepot would have been nice though. The pool area was nice also. We dealt with two shuttle drivers and both were great!! Anthony was one of the drivers and he was so nice. He got me to my appointments on time and had great info about the area. The female driver was wonderful also. She also was able to answer questions about the area. They both made our stay so much easier!!! Business center would have been better if the printers had ink so we could print out boarding passes. We did use the little shop area but I wished it had more gift things that we could have purchased. Overall this was a wonderful hotel and I would stay here again!!!More</t>
   </si>
   <si>
+    <t>C B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r279161739-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1390,9 @@
     <t>This visit was business/pleasure with my family.   Room was clean, lobby/breakfast area well lit with a pleasant staff.One major complaint about the hotel shuttle- we were left stranded for 2 hours until my husband picked us up. Front desk said they'd call a cab for us after the 2nd call and 45 min wait and we'd pay $10-15.    The complimentary shuttle offers service within a 5 mile radius of hotel with PRIORITY service to the AIRPORT.  Well they dropped us: PAYING CUSTOMERS OFF and didn't pick us up.  I would not have taken the shuttle had I known.More</t>
   </si>
   <si>
+    <t>LauraT06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r278306986-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1417,9 @@
     <t>We ended up here after construction in Fort Worth prevented us from being able to get into a hotel we had a reservation with.  They were friendly and the hotel was super clean. The breakfast selection was better than I have had at a hotel. Healthy choices and some fun treats for the kids!  Really enjoyed our first visit to the Dallas/Fort Worth area!More</t>
   </si>
   <si>
+    <t>MLJ8080</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r274801260-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1442,9 @@
   </si>
   <si>
     <t>We stay at this hotel every time we visit. They staff members are very nice and accommodating. Anything we need, they get it! The breakfast is awesome and plenty to go around. The rooms are very nice! My son likes to swim at the hotel and the pool is kept up. They have 24 hours front desk service. I am completely satisfied with my stay!More</t>
+  </si>
+  <si>
+    <t>HOTELMANTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r274049830-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -1336,6 +1480,9 @@
 The complimentary breakfast was very good. Of course I got the cinnamon rolls which is one of the reasons I stay at this brand, but the rest of the selections were great as well. They had scrambled eggs, sausage, breads, cereals, fresh fruit to name a few items. There were more selections but there are too many to list them all. The breakfast area was kept clean and fully stocked which is a good thing since most people are in a rush in the morning and they don't have a...I stayed here for one night just as a getaway and I was really impressed with this hotel. There was plenty of parking, the property was very clean and the room was great. The staff were all very friendly and accommodating, although I have to say I am pretty low maintenance.I stayed in a King Suite which basically had a separate sleeping room off of the living room. The bed was very comfortable, the living room portion had a microwave and mini fridge and there were two TV's, one in the living room and one in the bedroom. There was also a desk where I was able to setup my laptop computer and the free Wi-Fi worked splendidly.The bathroom had a walk-in shower which was great for me since I prefer those to a bathtub type setup. There were plenty of towels and the amenities were top notch.The complimentary breakfast was very good. Of course I got the cinnamon rolls which is one of the reasons I stay at this brand, but the rest of the selections were great as well. They had scrambled eggs, sausage, breads, cereals, fresh fruit to name a few items. There were more selections but there are too many to list them all. The breakfast area was kept clean and fully stocked which is a good thing since most people are in a rush in the morning and they don't have a lot of time to wait.Since I live in the area I most likely won't stay here on a frequent basis but I would definitely recommend the hotel to someone travelling to the area on business or pleasure. The location is great since Northeast Mall is basically across the freeway and there are plenty of restaurants and stores on either side of the freeway. You definitely won't get bored!More</t>
   </si>
   <si>
+    <t>AndilooTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r271377785-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1511,9 @@
 There was a microwave and small fridge, so run to the convenience store &amp; grab some waters &amp; cokes if you are so inclined for your stay.  They also had a bag of popcorn for us (we didn't end up eating it...not sure why!).  Breakfast was good - ended at 10, but one morning we were a little late &amp; got to grab what was left as they cleaned (and the staff did not seem to mind we were scavenging from the leftovers).  If you are there more than one night, and not sure you will make it the next morning, you can grab some milk, yogurt, oatmeal, whatever, and carry it to...Stayed here 2 nights for my brother's wedding up the road at the Northeast Wedding Chapel. Found the hotel to to be extremely clean &amp; comfortable.  Our 2-queen suite was perfect for our family of 4, including 2 adults &amp; 2 teenagers (who don't like to share a bed).  Having the foldout couch bed was very helpful &amp; the extra space was also a bonus.  I found the bed comfortable - not too firm, not too soft (but as I've said in other reviews, bed comfort is an individual thing, so there's no telling whether others will like them as well).  Appreciated the variety of pillows offered.Hooray for free Wi-fi!!!!  Thanks for not being like other name brand hotels &amp; charging for it, no matter what.  There was a microwave and small fridge, so run to the convenience store &amp; grab some waters &amp; cokes if you are so inclined for your stay.  They also had a bag of popcorn for us (we didn't end up eating it...not sure why!).  Breakfast was good - ended at 10, but one morning we were a little late &amp; got to grab what was left as they cleaned (and the staff did not seem to mind we were scavenging from the leftovers).  If you are there more than one night, and not sure you will make it the next morning, you can grab some milk, yogurt, oatmeal, whatever, and carry it to your room to keep in the fridge for the next morning.  We also grabbed a few packets of liquid creamer for our second morning b/c we don't like the powdered stuff that they leave in the room for use w/the single-serve coffee maker.  Also, they had warm cinnamon rolls, and a sign you could get a tray of them, which I think is very convenient if you are feeding a family &amp; not everyone can get their act together in time to come eat together.Note this hotel is pet friendly, and we actually heard several dogs in neighboring rooms barking while we were in the hall.  Miraculously, could not hear them inside our actual room.  Every staff member we encountered was friendly, from front-desk staff to housekeeping. Even had someone apparently working on landscaping fetch a luggage cart for us when we got there, even though we were parked in the side parking lot, well away from the front entrance where he got it.  All made eye contact and smiled each time we passed one.  We didn't pay attention at booking, and had no idea there was an indoor pool, but hung out in the courtyard next to it after the wedding, and noted it was a clean, good sized pool that didn't have the usual strong chlorine smell that most indoor hotel pools have.  Might have brought our swimsuit if we'd known....The only knock I have with this hotel has to do w/loading/unloading luggage, and it's really a minor quibble.  That is, there is no porte-cochère at the main entrance - only a partial overhang to barely provide protection from the elements upon arrival/departure.  It was a very rainy weekend from start to finish, and there was always a car (there was really only room for one, maybe 2 cars) parked up front loading or unloading so our bags got a wet when we loaded up to leave.  Also, there were only 2 luggage carts (per the front desk) and both were in use when we were loading up to leave. We later discovered one sitting abandoned on the 2nd floor, and another on the 3rd (there were 2 bridal parties there that weekend, one of which was ours, so it's possible the carts had been used to move their various boxes &amp; bags of supplies, etc.).  Not much they can do about the port-cochère, but perhaps some more luggage carts (or better supervision of the ones they have) are in order.Overall, really enjoyed it and although we rarely stay in hotels in the metroplex b/c our family is there, we would recommend this HIE to anyone looking to stay in/near Hurst or the surrounding area.More</t>
   </si>
   <si>
+    <t>Sandy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r266245635-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1541,9 @@
     <t>I was in town for two days for business.  This hotel is super convenient to the airport and right off the highway.  The room was spacious and stylish.  It included a refrigerator and microwave.  They even furnished microwave popcorn!  The bathroom had a spa-like quality and was ultra-clean.  They offer a complimentary evening reception during the week--munchies and wine and beer--and a full breakfast.  They offer a shuttle to and from the airport and anywhere within 5 miles.  I would definitely stay there again.  I wish other hotels had their standards!!!More</t>
   </si>
   <si>
+    <t>Rabaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r262054131-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1571,9 @@
     <t>I have OCD and I am very picky about hotel cleanliness. We chose it because the reviews mentioned that it is a clean hotel. I am very happy with everything. For a reasonable price, we got a very clean room with all the needed amenities and a good breakfast. I highly recommend it. Thanks Holiday Inn for making my stay so lovely.More</t>
   </si>
   <si>
+    <t>Lacey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r261693160-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1592,9 @@
     <t>I was originally scheduled for 2 nights in February w/ a co-worker, but weather cancelled our plans.  The hotel was very helpful in the initial booking, cancellation, and rebooking of our rooms.  When my co-worker couldn't go at the last minute this month's trip, they were understanding and fixed everything.I had a single for 2 nights.  The staff was very accomodating and friendly.  The shuttle I needed for a meeting was busy w/ 30 people going to the airport, so I didn't get to use that, but it was offered.  The breakfast buffet was good quality and lots of options for hot and cold breakfast.More</t>
   </si>
   <si>
+    <t>Jennifer D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r259865134-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1460,6 +1619,9 @@
     <t>I brought a small group of students to Hurst for a brief overnight trip.  The hotel was very accommodating.  They already had our keys ready when I checked in so it didn't take very long.  They even made sure the rooms were all on the same floor and close together.  The accommodations were superb.  The rooms were very large as was the bathroom.  The breakfast was very ample with a variety of hot and cold options.More</t>
   </si>
   <si>
+    <t>Pamilla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r259490674-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1646,9 @@
     <t>We only stayed one night, but it was exactly as promised. Clean Rooms, comfortable bed, shower very nice.  The booking staff, greeting staff, and housekeeping were pleasant.I have two Pomeranians and was happily placed in a room next to an outside door. Some pet friendly hotels leaves a lot to be desired for the carpet cleanliness. Holiday Inn keeps their standards high.I recommend this highly.The only reason I gave it a very good is the check inn parking.  It was non-exsistent.More</t>
   </si>
   <si>
+    <t>ams92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r257537563-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1700,9 @@
     <t>I am a platinum member and I stay here about 6 times a year for business and it by choice. Great staff, FREE happy hour is amazing (Monday -Thurs), super clean hotel, and location is great. Your next door to a great Italian restaurant, QT Gas station, Outback is close, and Target too. Very safe/well lit parking lot with free shuttle. No traffic noise at night so all rooms seem good. As a frequent traveler here I would recommend this hotel. More</t>
   </si>
   <si>
+    <t>chelliebug75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r251864257-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1730,9 @@
     <t>My family and I stayed here for one night before catching a flight out of DFW, I can't review the whole hotel as we didn't use the pool or eat breakfast, but the room was spotless, the decor was modern, the shuttle driver was friendly, the front desk staff didn't seem to care if we were there or not, but other than that great stay, and we left our car there during our trip and didn't have to worry about it, we will stay here again.More</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r249830765-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1760,9 @@
     <t>Host hotel for a recent conference. Nice room (420), but the TV would only provide audio after being tired off (for any reason). After routine delays waiting for maintenance two different guys came over the period of stay (two nights) to reset(?), reconnect(?), possible change a card(?) which they never did. Well bottom line I had to listen to a TV (audio) with NO visual screen most of the desired time. But get this (can you believe) I called front desk 0615 Sunday morning and the guy tells me the manager is not available and won't be in until 0900 Monday and there is NO maintenance personnel on duty.  So yes I listened to my Christian programs on my fancy 32" TV/radio until checkout. Yes I plan to contact the manager and will follow up (on trip) with  any adjustments to my bill (if any) and/or apologies. No I DID NOT get what I paid for at this Holiday Inn.More</t>
   </si>
   <si>
+    <t>BobbyP123cme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r244481064-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1787,9 @@
     <t>This Holiday Inn is one of my favorites. The staff is always friendly. The rooms are clean and up to date with a fridge and microwave.  The common area dining area is large and kept clean when breakfast and even happy hour are available. I've stayed here multiple times and will continue too!More</t>
   </si>
   <si>
+    <t>MWMS58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r243567939-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1814,9 @@
     <t>This is certainly one of the nicest ,reasonably priced hotels I have ever been in. The Holiday Inn Express was comfortable, friendly, convenient and the perfect place for our family to stay during our weekend in Hurst, TX. The hearth room/breakfast room was warm and inviting and large enough to seat a large group. This is where our large group congregated. The breakfast served here in the mornings was varied and satisfying. Warm and cold options were available and the hotel left some things out all day so that we could grab a snack when we needed a little something. The room was large and nicely appointed with a refrigerator, microwave, coffee pot, iron, hairdryer and flat screen TV. Our King room had a couch ,desk, and lounge chair as well.The bathroom was large with full amenities. The shower was a modern, tiled crevice in the wall. No door, but not needed. The air /fan was wall controlled which is important to me so that I can have a continuous fan and not the window kind that cycle on and off. My one point to offer is that our TV, when turned on, would not produce a picture until you turned it off and then back on again. Overall, the motel was quiet and comfortable and a pleasure to stay in. I would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Andrea T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r240164485-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1844,9 @@
     <t>Stayed for only one night but will considerate to come back and stay again. The staff members are great. The rooms are updated, lots of space, really neat and the bathrooms are comfortables, clean and up to date. Great beads and pillows. Room had a mini fridge and a microwave. Loved the place.More</t>
   </si>
   <si>
+    <t>Ken W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r239996643-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1863,9 @@
   </si>
   <si>
     <t>What can u say about Holiday Inns?We were there for 2 nights, had an enjoyable stay.The staff was very friendly,  but when I asked the attendant in the breakfast room to turn on the captioning she did not know how.She went to the desk clerk for help and the clerk laughed.  She thought it was funny that someone wanted the captions on the t v.Other than that our stay was pleasant. More</t>
+  </si>
+  <si>
+    <t>JamesHGambill</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r214904058-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -1721,6 +1907,9 @@
 The whole experience was much more than I would have expected for such a reasonable price.  This certainly made my whole family feel very good about moving to North Texas....I have never taken time to write a review even though I travel quite a bit.  My wife, daughter and I are moving to Texas so this trip was vacation and work.  First Anne, Rhonda and Jared.  I left their last names of for privacy.  The point is, I know their names.  They all work at the front desk and they are wonderful.  They helped us with everything from bookings, real estate, school districts and ice cream.  The rooms were immaculate and felt like a five star hotel.  The room cleaning staff were all fantastic.  I would only been happier if I could have afforded to tip them better.We even met Ramon, the maintenance guy.  He stopped and spoke to us whenever he saw us.  He's a veteran and takes his work seriously and performs it with pride.The pool was fantastic.  Lots of kids for our daughter to play with and warm towels to dry off.I just can't over state how nice the people who worked there were.I don't want to forget the wonderful breakfast.  I have eaten thousands of hotel continental breakfasts.  This one was remarkable and Martha, the lady who prepares it every morning was always smiling and quick with a few friendly words.  The whole experience was much more than I would have expected for such a reasonable price.  This certainly made my whole family feel very good about moving to North Texas.  Thanks again guys.More</t>
   </si>
   <si>
+    <t>Darlena M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r210616678-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +1937,9 @@
     <t>I am sure like most HIE's this is a nice hotel.  So this review is based on my situation, is for info purposes only and is why I didn't rate it lower.  We had water damage to our home to the point that my daughter, German Shepherd and I had to quickly find a place to stay (3 days up to a week for major home repairs).  I made reservations here based primarily on the fact that it was "Pet/Dog Friendly" as the amenity reviews stated as well as the other HIE's I have previously stayed at were.  Upon check-in, found the actual policy is for 40 lbs dogs and under with a $25 daily pet fee.  The front desk associate called his GM twice to plead my case &amp; see if there were any exceptions; the GM said no.  The front desk associate was appreciatively empathetic and helpful - even tried to help me find another place to stay.  So, non-managerial staff experience was very positive.  Being that not all hotels have the same pet policies within the same chain; it would have been great for HIE to post the actual policy, limits and fees under their amenities section.  Ended up at a very nice LaQuinta in Bedford with a bigger room, no pet fee, they worked with me on the pet size and all for $40 less per night.More</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r206327920-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +1967,9 @@
     <t>This newer, well located hotel should meet your meets.  Softball and soccer parks are very close along with numberous casual dining for families on a budget.  Easy on/off to 121 and very near other main cross roads in the Hurst/Colleyville area.  Watch the signs as construction is heavy currently (5/2014) in the 820/121 exchange area.  Full dedicated doorless shower without the tub enclosure/curtain...just like mine at home.  Give it a shot, you will glad you did.More</t>
   </si>
   <si>
+    <t>Treppenwitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r204158534-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1799,6 +1994,9 @@
     <t>I stay in a lot of hotels like this and don't bother reviewing most of them because they're generally all the same. But this one is really a cut above the rest. Considering it's an Express it's extremely well-appointed: it has a pool and the fitness center was great. The normal guest rooms are extremely large and comfortable, and of course come with a fridge and microwave. Staff were very helpful and friendly. Basically it's very new and guest-focused, and it shows. Breakfast is standard, i.e. nothing special, but it gets the job done.It's right off 183 and a couple of minutes' walk from the convention center and some restaurants. There's a Walmart and a Target both less than a mile away, and a gas station too.Obviously at the end of the day it's just an airport hotel so it's not going to change your life but if you want to stay in the area this is an excellent choice at a great price point.Be aware that at time of writing there is a lot of construction at this part of 183, though. Obviously that's temporary and not in the hotel's control but it does make it a little longer to get to than is ideal.More</t>
   </si>
   <si>
+    <t>lvLass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r193272204-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1817,6 +2015,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Randi R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r191848109-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1835,6 +2036,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Angela S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r191519457-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1853,6 +2057,9 @@
     <t>I checked into this hotel with my 3 year old daughter on Friday 1/17/14. We stayed for 2 nights. The check in was quick and even received a welcome bag for being a rewards member. We had a king bed which was nice and soft. The room was clean and did not smell musty like other rooms tend to. My only complaint was the TV. I could only get the sound. I called front desk who stated that I would need to "reset" it by unplugging it and then plugging it back in. In order to do this I had to move the heavy entertainment center to get to the plug. I had to do this each time I wanted to watch TV. The breakfast was nice. It is very crowded on the weekend. The breakfast workers were awesome. They were so friendly and made sure everything was out and fresh.More</t>
   </si>
   <si>
+    <t>WeddingAug2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r189135232-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2078,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>TravelGalore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r187092169-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1913,6 +2123,9 @@
     <t>We stayed at this hotel as the hotel the rest of our family were staying in was full on our 1st night.Our 1st impressions were WOW! A big luxurious bed, huge amounts of space and a lovely shower. I could of stayed in it all day long!Breakfast had a vast array of things to choose from and it was so delicious I wish I was staying another night, just for breakfast.Whilst waiting for other family members to wake my husband and I decided to take a walk. The only thing that let's this hotel down tourist wise is there is nothing else around. I'm from the UK so looking at it I guess this is a stay over for business.The staff were friendly and we had great service. Thank youMore</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r180233755-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1931,6 +2144,9 @@
     <t>I stayed at this location for the sole purpose of a hot tub - I am 61  with bad knees &amp; sore joints.  I got to hotel around 3:00. Went down and saw on the door to pool "pool and whirlpool" so I was satisfiedand did not go in to check out.  Later that evening after dinner went down and couldn't find a hot tub - anywhere.  Front desk was busy so I went to my room, waited and called and told the desk, if I had known, I would have scheduled a different hotel in the Dallas area.   I was going to use Saturday afternoon as well before going to the ND/ASU game.  Here is the kicker, I always check my reservations on-line one more time.  Didn't see any rhetoric before I made the reservation or before I left for Dallas regarding changes to the property (aka hot tub).  I was really disappointed.  I have been a Priority Club member for many years, and I am very disappointed enough to pass on Holiday Inn in the future.  I feel like I wasted my points on just 2 overnights.  Breakfast was great, but most HIE's are; location was good but construction out the wazoo inlcuding Saturday morning waking up to pounding across the street.More</t>
   </si>
   <si>
+    <t>A_VanAuken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r180232974-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1943,6 +2159,9 @@
     <t>This hotel is very modern themed and very clean.  The hotel staff does an amazing job with the up keep of this hotel.  I did encounter and situation during my stay and it took my 4 days to get it resolved after informing the Manager on duty.  Matt,  the hotel Manager, did a fantastic job at resolving my issue right away.  The staff could have smiled more and been a bit more friendly but over all the stay was pleasant and I would stay here again.</t>
   </si>
   <si>
+    <t>streba99016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r179721385-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -1956,6 +2175,9 @@
   </si>
   <si>
     <t xml:space="preserve">Stayed there for business. There were three major branded hotels right next to eachother and I have to say that this was the best one. Room was huge, and very quiet. I enjoyed the beautiful decor that is a bit different than most holiday inn expresses. </t>
+  </si>
+  <si>
+    <t>wizofwoz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r179706821-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -1980,6 +2202,9 @@
 But this hotel was SSSOOOOO great that I would fight the construction again to stay there.  It was also convenient to the airport....IF...This is a gorgeous hotel, decorated in dark wood accents that make you feel like you are staying in a luxurious home.  Front desk staff was friendly, helpful and quick.  Room was also VERY comfortable, decorated very nicely with all the amenities you need.  Free internet worked great.  I used their business center to print out boarding passes and there were several computers to use along with working printers and supplies.  The free breakfast offered quite a variety including pre-made omelettes and bacon.  What made the breakfast really nice was the huge and again gorgeously decorated area in which you eat....almost like sitting in a dining room as opposed to a kitchen.  There was staff constantly replenishing and cleaning the area.  The only bad thing and it's beyond the Holiday Inn Express West Hurst's fault, is the roads that you need to take to get there are all under construction.  I could see the hotel from the freeway but the exits are either non-existant anymore or hard to see so a GPS was worthless.  We just exited on the next exit we could spot and did a u-turn, NOT getting back on the freeway as we didn't know if we'd find another exit.  And if the freeway isn't bad enough, the service roads were ALSO under construction!  But this hotel was SSSOOOOO great that I would fight the construction again to stay there.  It was also convenient to the airport....IF there isn't traffic.More</t>
   </si>
   <si>
+    <t>kenm3333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r177912608-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2007,6 +2232,9 @@
     <t>I was scheduled to stay at this hotel until a family member had a very serious health issue come up. He passed away shortly afterwards. I went to be by his side in the hospital but I did forget to cancel this hotel reservation (the real irony was that I spent the night at another Holiday Inn). I called the next day and explained the situation to a hotel employee and also to the hotel assistant manager and asked the to consider giving me a refund. The response from the manager - "we were very busy last night and we could have sold your room to someone else". WOW!!! On the business end I kind of get this but on a ethical, moral and personal level I do not get it at all. I escalated my concern up through the corporate structure of Holiday Inn but this particular hotel never wavered on their stance - sorry for your loss but you are out the money (the hotel is privately owned). The up side of this is that Holiday Inn decided to reimburse me from the corporate treasury.More</t>
   </si>
   <si>
+    <t>KarenAA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r174104627-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2034,6 +2262,9 @@
     <t>This property is convenient to DFW airport, NRH20, North East Mall, lots of nice restaurants, Dallas and Fort Worth. We had a king size bed, with a beautiful tiled shower (you can request two queens with a bath tub/shower combo) Very clean, quit, nice decorating touches throughout the hotel, mini-fridge, coffee maker, iron &amp; board, hair dryer, HD TV, sitting area, desk, breakfast buffet, indoor pool, and happy hour during the week! Very friendly staff! Would definitely recommend for business, couples, and family vacations.More</t>
   </si>
   <si>
+    <t>JovitaP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r172330693-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2286,9 @@
     <t>Enjoyed stayed at the Holiday Inn at Hurst, as always at other Holiday Inn. This Holiday Inn has airport pickup and drop. You can utilize the drop to the Airport, as it is available as per the time of trip. Better to avoid the pickup from the airport, as it takes a long time for the shuttle to arrive. Free breakfast and Manager's reception in the evening makes up, to some extent, for the absence of a restaurant at Holiday Inn.For a person who was using the shuttle for local rides, the rides from the hotel were good. They were available on time, as per the regular trip by the hour. However, for rides to the hotel were not dependable, as I had to wait for more than half an hour for some trips. The business center was very useful, as I had difficulty in using my laptop for the first 2 days. The printer was very useful.More</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r170455500-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2307,9 @@
     <t>Stayed here four nights for a wedding in Colleyville and couldn't have asked for much more. Continental breakfast has a wide selection and everyone is very friendly and accommodating. The pool is nice and everything is very clean. Incredible value for the price. Cleaning service left a bit to be desired but that's about the only complaint I could have.More</t>
   </si>
   <si>
+    <t>Patsy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r163798892-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2094,6 +2331,9 @@
     <t>We have stayed at this Holiday Inn Express many times and it just keeps getting better!  Such a relaxing place and friendly, helpful hotel staff.  The shower is extraordinary and the room very clean and attractively decorated.  Convenient places nearby - great Italian restaurant within walking distance.  Love staying here!More</t>
   </si>
   <si>
+    <t>smittyjk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r162139649-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2109,6 +2349,9 @@
     <t>Absolutely the nicest Holiday Inn Exress Ive ever stayed in.  Beautiful decor, clean rooms and very nice breakfast.  The construction right now is bad on 121, 820, but hey its DFW.  We were here for a HS graduation.  Coffee is not Starbucks nor was breakfast IHOP, but it was great as far as FREE BREAKFASTS go.</t>
   </si>
   <si>
+    <t>Daisymae23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r162059463-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2124,6 +2367,9 @@
     <t>My bike was towed to Fort Worth and I had to wait till after the Memorial Day Weekend to get a tire replaced.  HIE was outstanding, they upgraded me to a suite and it made the 2 day layover very comfortable.  Would stay here again but next time under better circumstances.</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r161190404-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2385,9 @@
     <t xml:space="preserve">Our two queen suite was spacious and comfortable. The room was clean and the bed and pillows were comfortable. We stayed on the top floor and it was nice and quiet. The indoor pool was a nice size and air conditioned well.  Good location, softball fields and shopping close by. Great Italian restraunt next door.  We'll stay here again. </t>
   </si>
   <si>
+    <t>LuvstravelX2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r159022288-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2157,6 +2406,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>WiggleOxford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r157246656-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2178,6 +2430,9 @@
     <t>My son in law and I arrived in Dallas Fort Worth for a Harley Davidson Ride around Texas on Monday 8th April.   We stayed at the Holiday Inn in Hurst just a few miles from the Harley rental facility.   We did have to wait for nearly an hour for the shuttle bus but were upgraded when we arrived.Also a very nice touch was the bites and happy hours of free beer and wine from 5pm to 7pm on Monday evening prior to going out to dinner.   Room was excellent as was the breakfast simple but filling.   All in all a good experience and other than the wait for the courtesy bus it was great.More</t>
   </si>
   <si>
+    <t>Chief300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r156180929-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2193,6 +2448,9 @@
     <t>This is a luxury hotel at reasonable rates! The staff was great and set up three traveling companions with three beds in very nice suite.Clean upscale comfortable rooms with real breakfast options. Sausage and bacon with eggs, waffles, cereal, milk, juice, fruit, muffins and sweet danishes.I wish all hotels were this nice.</t>
   </si>
   <si>
+    <t>63901pb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r148825812-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2206,6 +2464,9 @@
   </si>
   <si>
     <t>The location is between Dallas and Fort Worth. Perfect for getting around the area. Mall very close, too, as are good restaurants. Hot food served morning and night (with drinks, pm). Rooms are spacious and clean. Great shower! I like it!</t>
+  </si>
+  <si>
+    <t>qtpiede19</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r146318472-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -2239,6 +2500,9 @@
 Use the hotel Taxi cab company for ride to game was only $35 one way.  Parking there is that much....I'll start off saying beautiful hotel.  Room was huge, king bed with sitting area, two TV's, small fridge, microwave, and nice bathroom.  Indoor pool &amp; hot tub on main level, kept up nice.  Great complimentary breakfast included, overall clean, hotel.We stayed for a weekend to see the sights and take in the Cowboys Game.  I opted for this location because of the shuttle service.  This saved us the cost of having to rent a car and fnd our own way around Dallas. (which is quite large.)My negative thing, would be the shuttle service.  There is poor communication from front desk to the drivers.  The drivers are great, but we found out twice they did not know we had pre-booked a certain time and driver was sitting doing nothing.  It wasn't until we re-asked did the driver get dispatched.  So word of caution, phone ahead and be prepared to wait.That being said, it was a great option as we got picked up and taken to the airport.  We took the shuttle service to the TRE station (dallas subway) to ride it downtown and take in sights.  We also used the TRE for another day to head to Fortworth.  There is an Italian restaurant and Mexican within walking distance.  Shopping jsut down the street although we did not go.Use the hotel Taxi cab company for ride to game was only $35 one way.  Parking there is that much.All and all great location to take in Dallas if you do not have a car to get around.More</t>
   </si>
   <si>
+    <t>Firebus7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r145198016-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2254,6 +2518,9 @@
     <t>Comfortable bed, nice room. The thermostat status lights were a little bright, they would light up the room with all the lights off. This made it a little hard to sleep. The second night we covered the thermostat with the shower cap wrapper, this made it much better. The front desk staff were very friendly.</t>
   </si>
   <si>
+    <t>ShannonBunch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r143882056-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2278,6 +2545,9 @@
     <t>I'm here now. I'm a gospel music entertainer. The church I'm performing at in the morning paid for the room. Front desk was not friendly AT ALL! Condescending attitude &amp; a lack of professionalism did not welcome me. Payment was made by the church but the front desk did not want to take it. He wouldn't allow me the opportunity to show him that info. I had to call the pastor at 11:15pm &amp; have him take care of the issue over the phone. Come to find out it was booked online &amp; already paid for. Notes/comments were made that the person booking is not the person staying in the room.  I will be contacting corporate.  Rooms are nice but once I got to it I was still steaming over me check in process. More</t>
   </si>
   <si>
+    <t>Tamsyn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r139899336-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2305,6 +2575,9 @@
     <t>This is a nice hotel on the upper end of the Holiday Inn scale, in both quality and price. As with all chain hotels it's a little impersonal, but clean, comfortable and quiet. Breakfast was good and staff were friendly. We've been there twice and would return.More</t>
   </si>
   <si>
+    <t>Mr S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r137020389-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2353,6 +2626,9 @@
     <t>I opted to stay here for business after reading some of the other reviews here and on Yelp. It is a few minutes away from other Holiday Inn Expresses, but looks to be so much better. The breakfast bar area was pretty nice and clean and quiet, and the food was pretty good. The staff were nice, the rooms were clean and pretty modern. The TV channel selection was huge compared to others I've seen recently. The only concern I had was that the police station or hospital that were nearby would keep me up/be noisy, but it wasn't an issue.Overall, if you are in the area, definately consider this property. Although I didn't go into the other Holiday Inn Express right up the road towards the airport in Bedford, I would discourage people from staying there for now as there is massive construction going on.Only reason this isn't 5 stars is that it isn't a resort hotel on a beach somewhere ;) PS If you stay here, go to BJ's Brewhouse about a mile away. Great beer selection, great service, and the food was good.More</t>
   </si>
   <si>
+    <t>IggyMom2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r133957866-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2377,6 +2653,9 @@
     <t>We previously stayed here in Sept 2011 and enjoyed it. Had a quick one-night stay a few days ago. It is all still the same. A newer, quiet, comfortable hotel with everything we needed.  The in-room microwave and fridge were nice for making my kids a snack. The front desk clerk, and especially the breakfast attendant, were very friendly.More</t>
   </si>
   <si>
+    <t>dittim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r133926157-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2395,6 +2674,9 @@
     <t>I've stayed here many times and the service, cleanlyness and staff have been consistant.  Also, my wife left some things in the room and the staff did turn them in and I was able to retrieve them, that's a first for me!More</t>
   </si>
   <si>
+    <t>squierwire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r130165247-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2416,6 +2698,9 @@
     <t>Our stay at this H.I. was exceptional.  The whole hotel is spotless.  Our room was quiet and beds were comfortable.  It has a very large and well-equipped fitness room and an indoor pool (we used neither).  The young ladies who maintained the free breakfast area were amazing.  Everything was clean, well stocked and they were friendly and helpful.   As others have said, the lobby/eating area is very nice.  Couldn't be more pleased.  It's well located to the DFW airport and restaurants, gas stations, grocery stores are nearby.  Just a very nice experience.More</t>
   </si>
   <si>
+    <t>papajk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r126271106-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2440,6 +2725,9 @@
     <t>Just returned home after attending a wedding in the Ft. Worth Area.  Staying at the Holiday Inn Express in Hurst, TX was much better than expected.  The price was right, the rooms were comfortable and well appointed, the staff was friendly and accommodating, the decor was sophisticated, and, it included a complimentary breakfast (a great cost cutter).  Thanks so much.More</t>
   </si>
   <si>
+    <t>headedtoTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r126210672-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2458,6 +2746,9 @@
     <t>Front desk service was excellent. She was very friendly and helpful. We stayed in a suite, which was very clean and the beds were super comfortable. The suite was spacious too. We liked the gym and the indoor pool. Our only complaint was there was no juice at breakfast. The machine was out of order but it didn't take away from our experience.More</t>
   </si>
   <si>
+    <t>7727</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r119291189-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2476,6 +2767,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Bret H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r118949136-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2491,6 +2785,9 @@
     <t>If every Holiday Inn Express looked like this one, I would never hesitate to stay in any of them.  This hotel is simply a cut above virtually every other HIE that I've ever stayed in.  The bed was comfortable, the air conditioner worked well, the fixtures were new.  Everything was great.  The shower was an actual shower with marble walls.  My biggest problem with HIEs is they are inconsistent, but this one is definitely a good one.</t>
   </si>
   <si>
+    <t>marco123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r118868834-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2506,6 +2803,9 @@
     <t>We had an exec suite. It was like an apartment. Hotel smelled like a new house.</t>
   </si>
   <si>
+    <t>jacob h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r118702980-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2545,6 +2845,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>ILoveIsrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r109021171-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2563,6 +2866,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>WagzLady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r104418971-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2584,6 +2890,9 @@
     <t>We wanted a central location as we would be visiting both Fort Worth and Dallas.  This location is just 2 blocks north of Hwy 183, but very quiet... Access was simple once we learned NOT to take 183, which was usually at a standstill due to wrecks in the construction areas.   Precinct Line went south to Hurst Blvd(direct to Dallas) or north to Belknap (downtown Fort Worth in 15 minutes).  Our rooms were ready on-the-dot 3pm as promised, with a huge comfy kingsize bed and lots of pillows.  With a TV, microwave, and frig, who could ask for more?  Everything appeared new, and the walkin shower with rain/pulse showerhead was great plus for tired muscles.  My only complaint was the continental breakfast....eat somewhere else as the food was usually cold, nuked to death, or not available at all.  But all in all, a marvelous place to "spend a holiday".More</t>
   </si>
   <si>
+    <t>Cbjackson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r100323578-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2599,6 +2908,9 @@
     <t xml:space="preserve">Nice clean and comfortable rooms! The service is great and what you would expect from the Holiday Inn Brand hotels! Free breakfast, managers reception, indoor pool and spa, this hotel has it all! </t>
   </si>
   <si>
+    <t>divefan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r98224387-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2617,6 +2929,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>lauren m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r97275355-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
   </si>
   <si>
@@ -2633,6 +2948,9 @@
   </si>
   <si>
     <t>Got this hotel via Hotwire because we were going to a function nearby!  Hotel check-in was smooth - girl at the front desk was businesslike, without a personality, but got us checked in quickly.Room had one king bed, a good sized fridge, coffee maker and a free bag of microwave popcorn (nice touch).Bathroom had a walk-in shower, hairdryer, big vanity and decent amenities (shampoo, conditioner, vanity pack, sewing kit, lotion and mouthwash).  VERY clean everywhere!Free breakfast had juices, cereal, coffee, fresh-made pancakes, biscuits and gravy, scrambled eggs, and cinnamon rolls.  Food could have been hotter, but not complaining for free!Checkout was quick - couldn't figure out if we could do it via the TV so we dropped our room keys and were done.Overall, decent, safe property for a good value.More</t>
+  </si>
+  <si>
+    <t>TravelGirlBeth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56015-d1027898-r95849176-Holiday_Inn_Hotel_Express_Suites_West_Hurst-Hurst_Texas.html</t>
@@ -3155,43 +3473,47 @@
       <c r="A2" t="n">
         <v>57740</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155507</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3203,56 +3525,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57740</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3268,56 +3594,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57740</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>23415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3331,50 +3661,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57740</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3390,56 +3724,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57740</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3457,56 +3795,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57740</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155509</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3524,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57740</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155510</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3591,50 +3937,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57740</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>42757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3646,56 +3996,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57740</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3707,56 +4061,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57740</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3768,56 +4126,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57740</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155513</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3829,56 +4191,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57740</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>47388</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3896,56 +4262,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57740</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>63911</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3957,47 +4327,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57740</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>51233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -4014,56 +4388,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57740</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155514</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -4079,38 +4457,42 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57740</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>8260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
@@ -4127,51 +4509,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57740</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155515</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4189,56 +4572,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57740</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155516</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4256,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57740</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155517</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4317,56 +4708,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57740</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155518</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4378,56 +4773,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57740</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>27435</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4445,47 +4844,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57740</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155519</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -4502,56 +4905,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57740</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4563,56 +4970,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57740</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4630,56 +5041,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57740</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>27248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4695,56 +5110,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57740</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>144006</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4760,56 +5179,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57740</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4821,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57740</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4882,56 +5309,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57740</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155522</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4947,56 +5378,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57740</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" t="s">
+        <v>309</v>
+      </c>
+      <c r="K31" t="s">
+        <v>310</v>
+      </c>
+      <c r="L31" t="s">
+        <v>311</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>278</v>
       </c>
-      <c r="J31" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" t="s">
-        <v>280</v>
-      </c>
-      <c r="L31" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>252</v>
-      </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5008,56 +5443,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="X31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57740</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5073,56 +5512,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57740</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>677</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="J33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5140,56 +5583,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57740</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155524</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5201,13 +5648,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
@@ -5220,37 +5667,37 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5262,56 +5709,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="X35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Y35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57740</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155525</v>
+      </c>
+      <c r="C36" t="s">
+        <v>348</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5323,56 +5774,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="X36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="Y36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57740</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155526</v>
+      </c>
+      <c r="C37" t="s">
+        <v>358</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5390,56 +5845,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="X37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57740</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155527</v>
+      </c>
+      <c r="C38" t="s">
+        <v>368</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5457,56 +5916,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57740</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155528</v>
+      </c>
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5524,56 +5987,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57740</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155529</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5585,56 +6052,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="X40" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57740</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>5576</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5646,56 +6117,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57740</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>36160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5713,56 +6188,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57740</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155530</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O43" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5780,56 +6259,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57740</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155531</v>
+      </c>
+      <c r="C44" t="s">
+        <v>419</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="O44" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5847,56 +6330,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57740</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>29479</v>
+      </c>
+      <c r="C45" t="s">
+        <v>429</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O45" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5908,56 +6395,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="X45" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57740</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>10054</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5975,56 +6466,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="X46" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57740</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>12609</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O47" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6036,56 +6531,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="X47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57740</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155532</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6097,47 +6596,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="X48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57740</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155533</v>
+      </c>
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -6154,56 +6657,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="X49" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57740</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155534</v>
+      </c>
+      <c r="C50" t="s">
+        <v>470</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6221,56 +6728,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="X50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57740</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>80408</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6288,56 +6799,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="X51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57740</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>32576</v>
+      </c>
+      <c r="C52" t="s">
+        <v>489</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L52" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="O52" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6355,56 +6870,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="X52" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57740</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155535</v>
+      </c>
+      <c r="C53" t="s">
+        <v>499</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6416,56 +6935,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="X53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57740</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155536</v>
+      </c>
+      <c r="C54" t="s">
+        <v>509</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="J54" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="K54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="L54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6481,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57740</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>5449</v>
+      </c>
+      <c r="C55" t="s">
+        <v>516</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="J55" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K55" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6548,56 +7075,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="X55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="Y55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57740</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155537</v>
+      </c>
+      <c r="C56" t="s">
+        <v>525</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6615,56 +7146,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="X56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57740</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155538</v>
+      </c>
+      <c r="C57" t="s">
+        <v>534</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="O57" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6680,47 +7215,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="X57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="Y57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57740</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>29479</v>
+      </c>
+      <c r="C58" t="s">
+        <v>429</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -6747,56 +7286,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="X58" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57740</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155539</v>
+      </c>
+      <c r="C59" t="s">
+        <v>552</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6814,56 +7357,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="X59" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="Y59" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57740</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="J60" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="K60" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="L60" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="O60" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6881,56 +7428,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="X60" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="Y60" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57740</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155540</v>
+      </c>
+      <c r="C61" t="s">
+        <v>572</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="J61" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="K61" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="L61" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="O61" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6948,56 +7499,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="X61" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="Y61" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57740</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155541</v>
+      </c>
+      <c r="C62" t="s">
+        <v>581</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="J62" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="K62" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="L62" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7013,56 +7568,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="X62" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="Y62" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57740</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>590</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="J63" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="K63" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="L63" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7074,56 +7633,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="X63" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="Y63" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57740</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>56456</v>
+      </c>
+      <c r="C64" t="s">
+        <v>600</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="J64" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="K64" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="L64" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7135,56 +7698,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="X64" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="Y64" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57740</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155542</v>
+      </c>
+      <c r="C65" t="s">
+        <v>607</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="J65" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="K65" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="L65" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="O65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -7202,56 +7769,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="X65" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="Y65" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57740</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155543</v>
+      </c>
+      <c r="C66" t="s">
+        <v>617</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="J66" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="K66" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="L66" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7263,56 +7834,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="X66" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="Y66" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57740</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C67" t="s">
+        <v>627</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="J67" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="K67" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="L67" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="O67" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7334,56 +7909,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="X67" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="Y67" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57740</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155544</v>
+      </c>
+      <c r="C68" t="s">
+        <v>637</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="J68" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="K68" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="L68" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7405,56 +7984,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="X68" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="Y68" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57740</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155545</v>
+      </c>
+      <c r="C69" t="s">
+        <v>646</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="J69" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="K69" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="L69" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="O69" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7478,50 +8061,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57740</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155546</v>
+      </c>
+      <c r="C70" t="s">
+        <v>653</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="J70" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="K70" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="L70" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7545,50 +8132,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57740</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>3855</v>
+      </c>
+      <c r="C71" t="s">
+        <v>660</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="J71" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="K71" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="L71" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7612,50 +8203,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57740</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>34070</v>
+      </c>
+      <c r="C72" t="s">
+        <v>667</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J72" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="K72" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="L72" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O72" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7679,50 +8274,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57740</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155547</v>
+      </c>
+      <c r="C73" t="s">
+        <v>674</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="J73" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="K73" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="L73" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O73" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7744,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X73" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y73" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74">
@@ -7763,28 +8362,28 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="J74" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="K74" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="L74" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7801,56 +8400,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X74" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y74" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57740</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>634</v>
+      </c>
+      <c r="C75" t="s">
+        <v>689</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="J75" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="K75" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="L75" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7874,50 +8477,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57740</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155548</v>
+      </c>
+      <c r="C76" t="s">
+        <v>696</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="J76" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="K76" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="L76" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="O76" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7941,41 +8548,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57740</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155549</v>
+      </c>
+      <c r="C77" t="s">
+        <v>701</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="J77" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="K77" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="L77" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -8004,50 +8615,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57740</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155550</v>
+      </c>
+      <c r="C78" t="s">
+        <v>707</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="J78" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="K78" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="L78" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8071,50 +8686,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57740</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155551</v>
+      </c>
+      <c r="C79" t="s">
+        <v>714</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="J79" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="K79" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="L79" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="O79" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8128,56 +8747,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="X79" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="Y79" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57740</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>155552</v>
+      </c>
+      <c r="C80" t="s">
+        <v>724</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="J80" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="K80" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="L80" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8199,56 +8822,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="X80" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="Y80" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57740</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155553</v>
+      </c>
+      <c r="C81" t="s">
+        <v>734</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="J81" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="K81" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="L81" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O81" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8270,56 +8897,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="X81" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="Y81" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57740</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C82" t="s">
+        <v>742</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="J82" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="K82" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="L82" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8341,56 +8972,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="X82" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="Y82" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57740</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155554</v>
+      </c>
+      <c r="C83" t="s">
+        <v>749</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="J83" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="K83" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="L83" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O83" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8412,56 +9047,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="X83" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="Y83" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57740</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155555</v>
+      </c>
+      <c r="C84" t="s">
+        <v>757</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="J84" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="K84" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="L84" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8485,50 +9124,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57740</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155556</v>
+      </c>
+      <c r="C85" t="s">
+        <v>763</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="J85" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="K85" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="L85" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O85" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8552,41 +9195,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57740</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C86" t="s">
+        <v>769</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="J86" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="K86" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="L86" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -8615,50 +9262,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57740</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155557</v>
+      </c>
+      <c r="C87" t="s">
+        <v>775</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="J87" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="K87" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="L87" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8682,50 +9333,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57740</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155558</v>
+      </c>
+      <c r="C88" t="s">
+        <v>782</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="J88" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="K88" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="L88" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8749,50 +9404,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57740</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155559</v>
+      </c>
+      <c r="C89" t="s">
+        <v>790</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="J89" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="K89" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="L89" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="O89" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8816,41 +9475,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57740</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>155560</v>
+      </c>
+      <c r="C90" t="s">
+        <v>796</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="J90" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="K90" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="L90" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
@@ -8879,50 +9542,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57740</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155561</v>
+      </c>
+      <c r="C91" t="s">
+        <v>802</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="J91" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="K91" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="L91" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8946,50 +9613,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57740</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155562</v>
+      </c>
+      <c r="C92" t="s">
+        <v>810</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="J92" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="K92" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="L92" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="O92" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -9013,41 +9684,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57740</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>70486</v>
+      </c>
+      <c r="C93" t="s">
+        <v>816</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="J93" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="K93" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="L93" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
@@ -9074,56 +9749,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="X93" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="Y93" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57740</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>155563</v>
+      </c>
+      <c r="C94" t="s">
+        <v>825</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="J94" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="K94" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="L94" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -9135,56 +9814,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="X94" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="Y94" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57740</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155564</v>
+      </c>
+      <c r="C95" t="s">
+        <v>835</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="J95" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="K95" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="L95" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="O95" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9196,13 +9879,13 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="X95" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
       <c r="Y95" t="s">
-        <v>753</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96">
@@ -9215,37 +9898,37 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>755</v>
+        <v>846</v>
       </c>
       <c r="J96" t="s">
-        <v>756</v>
+        <v>847</v>
       </c>
       <c r="K96" t="s">
-        <v>757</v>
+        <v>848</v>
       </c>
       <c r="L96" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="O96" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9267,56 +9950,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="X96" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
       <c r="Y96" t="s">
-        <v>760</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57740</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155565</v>
+      </c>
+      <c r="C97" t="s">
+        <v>852</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>761</v>
+        <v>853</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>762</v>
+        <v>854</v>
       </c>
       <c r="J97" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="K97" t="s">
-        <v>764</v>
+        <v>856</v>
       </c>
       <c r="L97" t="s">
-        <v>765</v>
+        <v>857</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="O97" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9338,56 +10025,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="X97" t="s">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="Y97" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57740</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>155566</v>
+      </c>
+      <c r="C98" t="s">
+        <v>861</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>769</v>
+        <v>862</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="J98" t="s">
-        <v>763</v>
+        <v>855</v>
       </c>
       <c r="K98" t="s">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="L98" t="s">
-        <v>772</v>
+        <v>865</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="O98" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9409,56 +10100,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="X98" t="s">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="Y98" t="s">
-        <v>774</v>
+        <v>867</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57740</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>155567</v>
+      </c>
+      <c r="C99" t="s">
+        <v>868</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>775</v>
+        <v>869</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>776</v>
+        <v>870</v>
       </c>
       <c r="J99" t="s">
-        <v>777</v>
+        <v>871</v>
       </c>
       <c r="K99" t="s">
-        <v>778</v>
+        <v>872</v>
       </c>
       <c r="L99" t="s">
-        <v>779</v>
+        <v>873</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>780</v>
+        <v>874</v>
       </c>
       <c r="O99" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9480,56 +10175,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="X99" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
       <c r="Y99" t="s">
-        <v>781</v>
+        <v>875</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>57740</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155568</v>
+      </c>
+      <c r="C100" t="s">
+        <v>876</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>782</v>
+        <v>877</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="J100" t="s">
-        <v>784</v>
+        <v>879</v>
       </c>
       <c r="K100" t="s">
-        <v>785</v>
+        <v>880</v>
       </c>
       <c r="L100" t="s">
-        <v>786</v>
+        <v>881</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="O100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9551,56 +10250,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>787</v>
+        <v>882</v>
       </c>
       <c r="X100" t="s">
-        <v>788</v>
+        <v>883</v>
       </c>
       <c r="Y100" t="s">
-        <v>789</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57740</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155569</v>
+      </c>
+      <c r="C101" t="s">
+        <v>885</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>790</v>
+        <v>886</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>791</v>
+        <v>887</v>
       </c>
       <c r="J101" t="s">
-        <v>792</v>
+        <v>888</v>
       </c>
       <c r="K101" t="s">
-        <v>793</v>
+        <v>889</v>
       </c>
       <c r="L101" t="s">
-        <v>794</v>
+        <v>890</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="O101" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9622,56 +10325,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>787</v>
+        <v>882</v>
       </c>
       <c r="X101" t="s">
-        <v>788</v>
+        <v>883</v>
       </c>
       <c r="Y101" t="s">
-        <v>795</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57740</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>155570</v>
+      </c>
+      <c r="C102" t="s">
+        <v>892</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>796</v>
+        <v>893</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>797</v>
+        <v>894</v>
       </c>
       <c r="J102" t="s">
-        <v>798</v>
+        <v>895</v>
       </c>
       <c r="K102" t="s">
-        <v>799</v>
+        <v>896</v>
       </c>
       <c r="L102" t="s">
-        <v>800</v>
+        <v>897</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>801</v>
+        <v>898</v>
       </c>
       <c r="O102" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P102" t="n">
         <v>2</v>
@@ -9695,50 +10402,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>800</v>
+        <v>897</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>57740</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155571</v>
+      </c>
+      <c r="C103" t="s">
+        <v>899</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>802</v>
+        <v>900</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
       <c r="J103" t="s">
-        <v>804</v>
+        <v>902</v>
       </c>
       <c r="K103" t="s">
-        <v>805</v>
+        <v>903</v>
       </c>
       <c r="L103" t="s">
-        <v>806</v>
+        <v>904</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>801</v>
+        <v>898</v>
       </c>
       <c r="O103" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9762,41 +10473,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>806</v>
+        <v>904</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>57740</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155572</v>
+      </c>
+      <c r="C104" t="s">
+        <v>905</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>807</v>
+        <v>906</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>808</v>
+        <v>907</v>
       </c>
       <c r="J104" t="s">
-        <v>809</v>
+        <v>908</v>
       </c>
       <c r="K104" t="s">
-        <v>810</v>
+        <v>909</v>
       </c>
       <c r="L104" t="s">
-        <v>811</v>
+        <v>910</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
@@ -9825,50 +10540,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>811</v>
+        <v>910</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>57740</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>155573</v>
+      </c>
+      <c r="C105" t="s">
+        <v>911</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>812</v>
+        <v>912</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>813</v>
+        <v>913</v>
       </c>
       <c r="J105" t="s">
-        <v>814</v>
+        <v>914</v>
       </c>
       <c r="K105" t="s">
-        <v>815</v>
+        <v>915</v>
       </c>
       <c r="L105" t="s">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>817</v>
+        <v>917</v>
       </c>
       <c r="O105" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9892,50 +10611,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>818</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>57740</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>155564</v>
+      </c>
+      <c r="C106" t="s">
+        <v>852</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>819</v>
+        <v>919</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="J106" t="s">
-        <v>821</v>
+        <v>921</v>
       </c>
       <c r="K106" t="s">
-        <v>822</v>
+        <v>922</v>
       </c>
       <c r="L106" t="s">
-        <v>823</v>
+        <v>923</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>824</v>
+        <v>924</v>
       </c>
       <c r="O106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9955,50 +10678,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>823</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>57740</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155574</v>
+      </c>
+      <c r="C107" t="s">
+        <v>925</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>825</v>
+        <v>926</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>826</v>
+        <v>927</v>
       </c>
       <c r="J107" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="K107" t="s">
-        <v>828</v>
+        <v>929</v>
       </c>
       <c r="L107" t="s">
-        <v>829</v>
+        <v>930</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>830</v>
+        <v>931</v>
       </c>
       <c r="O107" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10022,50 +10749,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>829</v>
+        <v>930</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>57740</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155575</v>
+      </c>
+      <c r="C108" t="s">
+        <v>932</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>831</v>
+        <v>933</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
       <c r="J108" t="s">
-        <v>833</v>
+        <v>935</v>
       </c>
       <c r="K108" t="s">
-        <v>834</v>
+        <v>936</v>
       </c>
       <c r="L108" t="s">
-        <v>835</v>
+        <v>937</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>836</v>
+        <v>938</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10089,41 +10820,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>837</v>
+        <v>939</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>57740</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>155576</v>
+      </c>
+      <c r="C109" t="s">
+        <v>940</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>838</v>
+        <v>941</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>839</v>
+        <v>942</v>
       </c>
       <c r="J109" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="K109" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="L109" t="s">
-        <v>842</v>
+        <v>945</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -10152,50 +10887,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>842</v>
+        <v>945</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>57740</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>155577</v>
+      </c>
+      <c r="C110" t="s">
+        <v>946</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>843</v>
+        <v>947</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>844</v>
+        <v>948</v>
       </c>
       <c r="J110" t="s">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c r="K110" t="s">
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="L110" t="s">
-        <v>847</v>
+        <v>951</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>848</v>
+        <v>952</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10219,50 +10958,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>847</v>
+        <v>951</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>57740</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>155578</v>
+      </c>
+      <c r="C111" t="s">
+        <v>953</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>849</v>
+        <v>954</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>850</v>
+        <v>955</v>
       </c>
       <c r="J111" t="s">
-        <v>851</v>
+        <v>956</v>
       </c>
       <c r="K111" t="s">
-        <v>852</v>
+        <v>957</v>
       </c>
       <c r="L111" t="s">
-        <v>853</v>
+        <v>958</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>848</v>
+        <v>952</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -10286,50 +11029,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>854</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>57740</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>155579</v>
+      </c>
+      <c r="C112" t="s">
+        <v>960</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>855</v>
+        <v>961</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>856</v>
+        <v>962</v>
       </c>
       <c r="J112" t="s">
-        <v>857</v>
+        <v>963</v>
       </c>
       <c r="K112" t="s">
-        <v>858</v>
+        <v>964</v>
       </c>
       <c r="L112" t="s">
-        <v>859</v>
+        <v>965</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>848</v>
+        <v>952</v>
       </c>
       <c r="O112" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10353,7 +11100,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>860</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
